--- a/Merck Sereno Dashboard/Dashboard/Content/ExportTemplate/Home.xlsx
+++ b/Merck Sereno Dashboard/Dashboard/Content/ExportTemplate/Home.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="240" yWindow="240" windowWidth="14940" windowHeight="9105"/>
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="1" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="5" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -131,7 +131,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -168,8 +168,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -227,21 +233,28 @@
       <left/>
       <right/>
       <top style="medium">
-        <color rgb="FFC40087"/>
+        <color theme="0"/>
       </top>
       <bottom style="medium">
-        <color theme="0"/>
+        <color theme="0" tint="-0.24994659260841701"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="medium">
+      <top/>
+      <bottom style="medium">
+        <color theme="8" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="0"/>
-      </top>
-      <bottom style="medium">
-        <color theme="0" tint="-0.24994659260841701"/>
       </bottom>
       <diagonal/>
     </border>
@@ -344,22 +357,22 @@
     <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -580,8 +593,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="136402944"/>
-        <c:axId val="104536832"/>
+        <c:axId val="570359296"/>
+        <c:axId val="571017472"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -646,11 +659,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="136402944"/>
-        <c:axId val="104536832"/>
+        <c:axId val="570359296"/>
+        <c:axId val="571017472"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="136402944"/>
+        <c:axId val="570359296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -660,7 +673,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104536832"/>
+        <c:crossAx val="571017472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -668,7 +681,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="104536832"/>
+        <c:axId val="571017472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -678,13 +691,33 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="136402944"/>
+        <c:crossAx val="570359296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:legendEntry>
+        <c:idx val="0"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
       <c:layout>
         <c:manualLayout>
           <c:xMode val="edge"/>
@@ -891,8 +924,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="137509888"/>
-        <c:axId val="104589568"/>
+        <c:axId val="579489792"/>
+        <c:axId val="611944128"/>
       </c:barChart>
       <c:barChart>
         <c:barDir val="bar"/>
@@ -1069,11 +1102,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="136404480"/>
-        <c:axId val="104590144"/>
+        <c:axId val="579490304"/>
+        <c:axId val="611944704"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="137509888"/>
+        <c:axId val="579489792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1082,7 +1115,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104589568"/>
+        <c:crossAx val="611944128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1090,7 +1123,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="104589568"/>
+        <c:axId val="611944128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1101,12 +1134,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="137509888"/>
+        <c:crossAx val="579489792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="104590144"/>
+        <c:axId val="611944704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1116,12 +1149,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="136404480"/>
+        <c:crossAx val="579490304"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="136404480"/>
+        <c:axId val="579490304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1130,7 +1163,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104590144"/>
+        <c:crossAx val="611944704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1209,7 +1242,7 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>11906</xdr:colOff>
+      <xdr:colOff>35718</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>23812</xdr:rowOff>
     </xdr:from>
@@ -1240,8 +1273,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="202406" y="23812"/>
-          <a:ext cx="12775405" cy="714375"/>
+          <a:off x="226218" y="23812"/>
+          <a:ext cx="12751593" cy="714375"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1757,7 +1790,7 @@
   <dimension ref="B1:P42"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:N2"/>
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1790,35 +1823,35 @@
       <c r="O2" s="1"/>
     </row>
     <row r="3" spans="2:15" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="30"/>
-      <c r="N3" s="30"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="33"/>
       <c r="O3" s="1"/>
     </row>
     <row r="4" spans="2:15" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="31"/>
-      <c r="N4" s="31"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="29"/>
       <c r="O4" s="1"/>
     </row>
     <row r="5" spans="2:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2233,45 +2266,45 @@
       <c r="M1" s="1"/>
     </row>
     <row r="2" spans="2:13" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
       <c r="M2" s="1"/>
     </row>
     <row r="3" spans="2:13" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="32"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="2:13" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="33"/>
-      <c r="K4" s="33"/>
-      <c r="L4" s="33"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="32"/>
       <c r="M4" s="1"/>
     </row>
     <row r="5" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2815,33 +2848,33 @@
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="2:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="2:9" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="2:9" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
